--- a/tech.xlsx
+++ b/tech.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A63F6A-8FEC-4FCA-8E3B-48CD3CA4C0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D52B07D-9AB9-454B-A552-91FCAB0C6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="435" windowWidth="20805" windowHeight="15015" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="5085" yWindow="885" windowWidth="20805" windowHeight="14520" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="5" r:id="rId2"/>
+    <sheet name="Supercomputers" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +770,162 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>SpaceX</t>
+  </si>
+  <si>
+    <t>xAI</t>
+  </si>
+  <si>
+    <t>ByteDance</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>Revolut</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Fanatics</t>
+  </si>
+  <si>
+    <t>Safe Superintelligence</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Epic Games</t>
+  </si>
+  <si>
+    <t>Miro</t>
+  </si>
+  <si>
+    <t>Xiaohongshu</t>
+  </si>
+  <si>
+    <t>Rippling</t>
+  </si>
+  <si>
+    <t>Yuanfudao</t>
+  </si>
+  <si>
+    <t>DJI Innovations</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Gopuff</t>
+  </si>
+  <si>
+    <t>Yuanqi Senlin</t>
+  </si>
+  <si>
+    <t>Ripple</t>
+  </si>
+  <si>
+    <t>Klarna</t>
+  </si>
+  <si>
+    <t>Anduril</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>OpenSea</t>
+  </si>
+  <si>
+    <t>Celonis</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Grammarly</t>
+  </si>
+  <si>
+    <t>Perplexity</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Scale AI</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>El Capitan</t>
+  </si>
+  <si>
+    <t>Colossus</t>
+  </si>
+  <si>
+    <t>Lambda Labs</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>OpenAI/MSFT</t>
+  </si>
+  <si>
+    <t>U.S DOE</t>
+  </si>
+  <si>
+    <t>Cortex</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>Goodyear</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>GPUs</t>
+  </si>
+  <si>
+    <t>&gt;1m GPU by the end of 2025</t>
+  </si>
+  <si>
+    <t>&gt;1m GPU goal</t>
+  </si>
+  <si>
+    <t>1.3m GPUs end of 2025</t>
+  </si>
+  <si>
+    <t>FP8</t>
+  </si>
+  <si>
+    <t>Stargate</t>
+  </si>
+  <si>
+    <t>180ExaFLOPS</t>
   </si>
 </sst>
 </file>
@@ -876,27 +1033,16 @@
       </sheetData>
       <sheetData sheetId="1">
         <row r="28">
-          <cell r="AG28">
-            <v>0.02</v>
-          </cell>
+          <cell r="AG28"/>
         </row>
         <row r="29">
-          <cell r="AG29">
-            <v>0.01</v>
-          </cell>
+          <cell r="AG29"/>
         </row>
         <row r="30">
-          <cell r="AG30">
-            <v>9.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AG31">
-            <v>4502825.178628806</v>
-          </cell>
+          <cell r="AG30"/>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1078,7 +1224,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1140,7 +1286,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1586,10 +1732,10 @@
   <dimension ref="B1:P132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1755,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B124)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -1617,7 +1763,7 @@
       </c>
       <c r="L2" s="3">
         <f>AVERAGE(L4:L1048576)</f>
-        <v>0.16320441452233372</v>
+        <v>1.9143512478950426E-2</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -1678,7 +1824,7 @@
         <v>183</v>
       </c>
       <c r="F4" s="2">
-        <f>E4*J4</f>
+        <f t="shared" ref="F4:F15" si="0">E4*J4</f>
         <v>4465200</v>
       </c>
       <c r="G4" s="2">
@@ -1698,23 +1844,23 @@
       </c>
       <c r="K4" s="2">
         <f>[1]Model!$AG$31</f>
-        <v>4502825.178628806</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
         <f>K4/F4-1</f>
-        <v>8.4263143036831245E-3</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="3">
         <f>[1]Model!$AG$28</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
         <f>[1]Model!$AG$29</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
         <f>[1]Model!$AG$30</f>
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -1729,14 +1875,14 @@
         <v>116</v>
       </c>
       <c r="F5" s="2">
-        <f>E5*J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6">
-        <f t="shared" ref="B6:B70" si="0">B5+1</f>
+        <f t="shared" ref="B6:B70" si="1">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1747,7 +1893,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2">
-        <f>E6*J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
@@ -1761,7 +1907,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1774,7 +1920,7 @@
         <v>204</v>
       </c>
       <c r="F7" s="2">
-        <f>E7*J7</f>
+        <f t="shared" si="0"/>
         <v>2467176</v>
       </c>
       <c r="G7" s="2">
@@ -1815,7 +1961,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1825,14 +1971,14 @@
         <v>119</v>
       </c>
       <c r="F8" s="2">
-        <f>E8*J8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1842,14 +1988,14 @@
         <v>120</v>
       </c>
       <c r="F9" s="2">
-        <f>E9*J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C10" t="s">
@@ -1859,14 +2005,14 @@
         <v>121</v>
       </c>
       <c r="F10" s="2">
-        <f>E10*J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1877,7 +2023,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2">
-        <f>E11*J11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
@@ -1891,7 +2037,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1904,7 +2050,7 @@
         <v>330</v>
       </c>
       <c r="F12" s="2">
-        <f>E12*J12</f>
+        <f t="shared" si="0"/>
         <v>1062915.48</v>
       </c>
       <c r="G12" s="2">
@@ -1927,7 +2073,7 @@
         <v>1148867.6762630809</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" ref="L8:L15" si="1">K12/F12-1</f>
+        <f t="shared" ref="L12:L15" si="2">K12/F12-1</f>
         <v>8.0864563439306592E-2</v>
       </c>
       <c r="M12" s="3">
@@ -1945,7 +2091,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1955,14 +2101,14 @@
         <v>124</v>
       </c>
       <c r="F13" s="2">
-        <f>E13*J13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -1972,14 +2118,14 @@
         <v>125</v>
       </c>
       <c r="F14" s="2">
-        <f>E14*J14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1992,7 +2138,7 @@
         <v>1180</v>
       </c>
       <c r="F15" s="2">
-        <f>E15*J15</f>
+        <f t="shared" si="0"/>
         <v>501748.98000000004</v>
       </c>
       <c r="G15" s="2">
@@ -2015,7 +2161,7 @@
         <v>533456.91678449931</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3194820614282499E-2</v>
       </c>
       <c r="M15" s="3">
@@ -2033,7 +2179,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2045,7 +2191,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C17" t="s">
@@ -2057,7 +2203,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C18" t="s">
@@ -2078,7 +2224,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2090,7 +2236,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2102,7 +2248,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2114,7 +2260,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C22" t="s">
@@ -2126,7 +2272,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C23" t="s">
@@ -2138,7 +2284,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -2150,7 +2296,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C25" t="s">
@@ -2162,7 +2308,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C26" t="s">
@@ -2174,7 +2320,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C27" t="s">
@@ -2186,7 +2332,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C28" t="s">
@@ -2198,7 +2344,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C29" t="s">
@@ -2210,7 +2356,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C30" t="s">
@@ -2222,7 +2368,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C31" t="s">
@@ -2234,7 +2380,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C32" t="s">
@@ -2246,7 +2392,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C33" t="s">
@@ -2258,7 +2404,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2270,7 +2416,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2282,7 +2428,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2294,7 +2440,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2330,7 +2476,7 @@
         <v>189943.56809548015</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37" si="2">K37/F37-1</f>
+        <f t="shared" ref="L37" si="3">K37/F37-1</f>
         <v>0.27569487660016412</v>
       </c>
       <c r="M37" s="3">
@@ -2348,7 +2494,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C38" t="s">
@@ -2360,7 +2506,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C39" t="s">
@@ -2372,7 +2518,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C40" t="s">
@@ -2384,7 +2530,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C41" t="s">
@@ -2396,7 +2542,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2408,7 +2554,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C43" t="s">
@@ -2420,7 +2566,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C44" t="s">
@@ -2432,7 +2578,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C45" t="s">
@@ -2444,7 +2590,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C46" t="s">
@@ -2456,7 +2602,7 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C47" t="s">
@@ -2468,7 +2614,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C48" t="s">
@@ -2480,7 +2626,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C49" t="s">
@@ -2492,7 +2638,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C50" t="s">
@@ -2504,7 +2650,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C51" t="s">
@@ -2516,7 +2662,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C52" t="s">
@@ -2528,7 +2674,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C53" t="s">
@@ -2540,7 +2686,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C54" t="s">
@@ -2552,7 +2698,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C55" t="s">
@@ -2564,7 +2710,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C56" t="s">
@@ -2576,7 +2722,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C57" t="s">
@@ -2588,7 +2734,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C58" t="s">
@@ -2600,7 +2746,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C59" t="s">
@@ -2612,7 +2758,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C60" t="s">
@@ -2624,7 +2770,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2636,7 +2782,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C62" t="s">
@@ -2648,7 +2794,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C63" t="s">
@@ -2660,7 +2806,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C64" t="s">
@@ -2672,7 +2818,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C65" t="s">
@@ -2684,7 +2830,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C66" t="s">
@@ -2696,7 +2842,7 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C67" t="s">
@@ -2708,7 +2854,7 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C68" t="s">
@@ -2720,7 +2866,7 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C69" t="s">
@@ -2732,7 +2878,7 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C70" t="s">
@@ -2744,7 +2890,7 @@
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71">
-        <f t="shared" ref="B71:B132" si="3">B70+1</f>
+        <f t="shared" ref="B71:B132" si="4">B70+1</f>
         <v>68</v>
       </c>
       <c r="C71" t="s">
@@ -2756,7 +2902,7 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="C72" t="s">
@@ -2768,7 +2914,7 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2804,7 +2950,7 @@
         <v>92599.553979617034</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" ref="L73" si="4">K73/F73-1</f>
+        <f t="shared" ref="L73" si="5">K73/F73-1</f>
         <v>0.4047025989322397</v>
       </c>
       <c r="M73" s="3">
@@ -2822,7 +2968,7 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="C74" t="s">
@@ -2834,7 +2980,7 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="C75" t="s">
@@ -2846,7 +2992,7 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C76" t="s">
@@ -2858,7 +3004,7 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C77" t="s">
@@ -2870,7 +3016,7 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C78" t="s">
@@ -2882,7 +3028,7 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C79" t="s">
@@ -2894,7 +3040,7 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="C80" t="s">
@@ -2906,7 +3052,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C81" t="s">
@@ -2918,7 +3064,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="C82" t="s">
@@ -2930,7 +3076,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C83" t="s">
@@ -2942,7 +3088,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C84" t="s">
@@ -2954,7 +3100,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="C85" t="s">
@@ -2966,7 +3112,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C86" t="s">
@@ -2978,7 +3124,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="C87" t="s">
@@ -2990,7 +3136,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="C88" t="s">
@@ -3002,7 +3148,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="C89" t="s">
@@ -3014,7 +3160,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="C90" t="s">
@@ -3026,7 +3172,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C91" t="s">
@@ -3038,7 +3184,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="C92" t="s">
@@ -3050,7 +3196,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="C93" t="s">
@@ -3062,7 +3208,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C94" t="s">
@@ -3074,7 +3220,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C95" t="s">
@@ -3086,7 +3232,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C96" t="s">
@@ -3098,7 +3244,7 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="C97" t="s">
@@ -3110,7 +3256,7 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C98" t="s">
@@ -3122,7 +3268,7 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="C99" t="s">
@@ -3134,7 +3280,7 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C100" t="s">
@@ -3146,7 +3292,7 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="C101" t="s">
@@ -3158,7 +3304,7 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="C102" t="s">
@@ -3170,7 +3316,7 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C103" t="s">
@@ -3182,7 +3328,7 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="C104" t="s">
@@ -3194,7 +3340,7 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="C105" t="s">
@@ -3206,7 +3352,7 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="C106" t="s">
@@ -3218,7 +3364,7 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="C107" t="s">
@@ -3230,7 +3376,7 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="C108" t="s">
@@ -3242,7 +3388,7 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="C109" t="s">
@@ -3254,7 +3400,7 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3290,7 +3436,7 @@
         <v>33918.611138370936</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" ref="L110" si="5">K110/F110-1</f>
+        <f t="shared" ref="L110" si="6">K110/F110-1</f>
         <v>0.26293843065919509</v>
       </c>
       <c r="M110" s="3">
@@ -3308,7 +3454,7 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3368,7 +3514,7 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="C114" t="s">
@@ -3382,7 +3528,7 @@
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="C115" t="s">
@@ -3394,7 +3540,7 @@
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3406,97 +3552,97 @@
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
     </row>
@@ -3534,20 +3680,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D1" s="2">
+        <f>SUM(D3:D34)</f>
+        <v>2424500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f t="shared" ref="B5:B35" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="2">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>B7+1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="2">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2">
+        <v>91500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="2">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="2">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -3556,4 +4114,184 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5740550-6CD7-46B6-B82C-38A15AC511FA}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2">
+        <v>32500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2">
+        <v>25000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{86949CA3-591F-4CA7-A803-CE9CBE40CA95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tech.xlsx
+++ b/tech.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D52B07D-9AB9-454B-A552-91FCAB0C6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850BB34-96FF-4758-9028-FB50F5F98588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="885" windowWidth="20805" windowHeight="14520" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="1050" yWindow="405" windowWidth="23835" windowHeight="14805" activeTab="2" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Private" sheetId="5" r:id="rId2"/>
-    <sheet name="Supercomputers" sheetId="6" r:id="rId3"/>
+    <sheet name="Todo" sheetId="8" r:id="rId2"/>
+    <sheet name="GPUs" sheetId="10" r:id="rId3"/>
+    <sheet name="Private" sheetId="5" r:id="rId4"/>
+    <sheet name="Supercomputers" sheetId="6" r:id="rId5"/>
+    <sheet name="Funds" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="360">
   <si>
     <t>Name</t>
   </si>
@@ -926,6 +929,207 @@
   </si>
   <si>
     <t>180ExaFLOPS</t>
+  </si>
+  <si>
+    <t>AUM</t>
+  </si>
+  <si>
+    <t>Bridgewater</t>
+  </si>
+  <si>
+    <t>Man Group</t>
+  </si>
+  <si>
+    <t>Millennium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elliot </t>
+  </si>
+  <si>
+    <t>Citadel</t>
+  </si>
+  <si>
+    <t>D.E. Shaw</t>
+  </si>
+  <si>
+    <t>Two Sigma</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Farallon</t>
+  </si>
+  <si>
+    <t>Renaissance</t>
+  </si>
+  <si>
+    <t>AQR Capital</t>
+  </si>
+  <si>
+    <t>Davidson Kempner</t>
+  </si>
+  <si>
+    <t>Point72</t>
+  </si>
+  <si>
+    <t>The Children's</t>
+  </si>
+  <si>
+    <t>Marshall Wace</t>
+  </si>
+  <si>
+    <t>Brevan Howard</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Return/yr</t>
+  </si>
+  <si>
+    <t>Ken Griffin</t>
+  </si>
+  <si>
+    <t>Millenium</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Best ann. return</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Robyn Grew</t>
+  </si>
+  <si>
+    <t>Paul Singer</t>
+  </si>
+  <si>
+    <t>Israel Englander</t>
+  </si>
+  <si>
+    <t>Chris Hohn</t>
+  </si>
+  <si>
+    <t>David E. Shaw</t>
+  </si>
+  <si>
+    <t>Carter Lyons/Scott Hoffman</t>
+  </si>
+  <si>
+    <t>Bob Prince/Greg Jensen</t>
+  </si>
+  <si>
+    <t>David Solomon</t>
+  </si>
+  <si>
+    <t>Tom Steyer</t>
+  </si>
+  <si>
+    <t>Peter Brown</t>
+  </si>
+  <si>
+    <t>Cliff Asness</t>
+  </si>
+  <si>
+    <t>Thomas Kempner/Anthony Yoseloff</t>
+  </si>
+  <si>
+    <t>Steve Cohen</t>
+  </si>
+  <si>
+    <t>Paul Marshall/Ian Wace</t>
+  </si>
+  <si>
+    <t>Aron Landy</t>
+  </si>
+  <si>
+    <t>Jean Hynes</t>
+  </si>
+  <si>
+    <t>Pod Shop</t>
+  </si>
+  <si>
+    <t>Activist</t>
+  </si>
+  <si>
+    <t>Multi-Strategy</t>
+  </si>
+  <si>
+    <t>Fundamental</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>500b funding goal</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>5,000?</t>
+  </si>
+  <si>
+    <t>MSFT - rework</t>
+  </si>
+  <si>
+    <t>META - finish</t>
+  </si>
+  <si>
+    <t>AMZN - finish</t>
+  </si>
+  <si>
+    <t>ORCL - finish</t>
+  </si>
+  <si>
+    <t>TSLA - add</t>
+  </si>
+  <si>
+    <t>PLTR - finish</t>
+  </si>
+  <si>
+    <t>NVDA - indepth research on ai spending figures</t>
+  </si>
+  <si>
+    <t>GOOGL - qualitative research</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>MI300X</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -946,6 +1150,21 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -971,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -979,6 +1198,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1099,7 +1320,7 @@
         </row>
         <row r="90">
           <cell r="AF90">
-            <v>2582169.3392004068</v>
+            <v>2568643.8918113653</v>
           </cell>
         </row>
       </sheetData>
@@ -1144,22 +1365,17 @@
       <sheetData sheetId="1">
         <row r="123">
           <cell r="AB123">
+            <v>486871.47789864219</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="AB125">
             <v>0.02</v>
           </cell>
         </row>
-        <row r="124">
-          <cell r="AB124">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="AB125">
-            <v>0.1</v>
-          </cell>
-        </row>
         <row r="126">
           <cell r="AB126">
-            <v>1148867.6762630809</v>
+            <v>0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -1731,11 +1947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
   <dimension ref="B1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1971,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B124)</f>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -1763,7 +1979,7 @@
       </c>
       <c r="L2" s="3">
         <f>AVERAGE(L4:L1048576)</f>
-        <v>1.9143512478950426E-2</v>
+        <v>-0.13604887488131048</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -1940,11 +2156,11 @@
       </c>
       <c r="K7" s="2">
         <f>[2]Model!$AF$90</f>
-        <v>2582169.3392004068</v>
+        <v>2568643.8918113653</v>
       </c>
       <c r="L7" s="3">
         <f>K7/F7-1</f>
-        <v>4.6609297107464975E-2</v>
+        <v>4.1127139616859543E-2</v>
       </c>
       <c r="M7" s="3">
         <f>[2]Model!$AF$87</f>
@@ -2070,23 +2286,23 @@
       </c>
       <c r="K12" s="2">
         <f>[3]Model!$AB$126</f>
-        <v>1148867.6762630809</v>
+        <v>0.01</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" ref="L12:L15" si="2">K12/F12-1</f>
-        <v>8.0864563439306592E-2</v>
+        <v>-0.99999999059191425</v>
       </c>
       <c r="M12" s="3">
         <f>[3]Model!$AB$123</f>
-        <v>0.02</v>
+        <v>486871.47789864219</v>
       </c>
       <c r="N12" s="3">
         <f>[3]Model!$AB$124</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <f>[3]Model!$AB$125</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -3679,432 +3895,441 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03ADEF8-60CD-4FAD-99D1-B6CE51B786F2}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2">
-        <f>SUM(D3:D34)</f>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AB0BDD42-35A3-41F0-BA82-30F97046682B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2BFFAB-0B5A-48D6-B3B6-268A798BEB19}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AECF3220-A74D-4A3F-AE98-763E658219A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2">
+        <f>SUM(C3:C34)</f>
         <v>2424500</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
         <v>500000</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <f t="shared" ref="B5:B35" si="0">B4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
         <v>315000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>170000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f>B7+1</f>
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <v>113000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
         <v>91500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
         <v>62000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
         <v>31000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
         <v>29000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
         <v>17000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2">
         <v>17000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
         <v>16000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="2">
+      <c r="C27" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>263</v>
       </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>264</v>
       </c>
-      <c r="D29" s="2">
+      <c r="C29" s="2">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2">
         <v>14000</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31" s="2">
         <v>13000</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2">
         <v>13000</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>268</v>
       </c>
-      <c r="D33" s="2">
+      <c r="C33" s="2">
         <v>13000</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="2">
+      <c r="C34" s="2">
         <v>13000</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="2">
+      <c r="C35" s="2">
         <v>4000</v>
       </c>
     </row>
@@ -4116,13 +4341,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5740550-6CD7-46B6-B82C-38A15AC511FA}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4169,8 +4394,11 @@
         <v>244</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="2">
-        <v>5000</v>
+      <c r="E3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G3" t="s">
         <v>288</v>
@@ -4184,6 +4412,9 @@
         <v>22</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>100000</v>
+      </c>
       <c r="F4" s="2">
         <v>32500</v>
       </c>
@@ -4259,15 +4490,17 @@
         <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
         <v>292</v>
       </c>
       <c r="E11" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
@@ -4294,4 +4527,505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF47A55-75CD-4F33-841F-B20598D340F5}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="2">
+        <v>89600</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="E3">
+        <v>1975</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="2">
+        <v>77500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>1783</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="2">
+        <v>69700</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1977</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="2">
+        <v>67895</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1989</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="2">
+        <v>63430</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="E7">
+        <v>1990</v>
+      </c>
+      <c r="F7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="2">
+        <v>63000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="E8">
+        <v>2003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="2">
+        <v>53715</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E9">
+        <v>1988</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44271</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E10">
+        <v>2001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E11">
+        <v>1869</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40300</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1986</v>
+      </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39200</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1982</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38800</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>1998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15">
+        <v>1983</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35200</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E16">
+        <v>2014</v>
+      </c>
+      <c r="F16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="2">
+        <v>35171</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>1997</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="2">
+        <v>31000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E18">
+        <v>2002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="2">
+        <v>27800</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E19">
+        <v>1928</v>
+      </c>
+      <c r="F19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="E21" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23">
+        <f>D22+1</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D31" si="0">D23+1</f>
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BBDC8624-1F16-4DF1-BC29-3EB4737A3CE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tech.xlsx
+++ b/tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850BB34-96FF-4758-9028-FB50F5F98588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C70A52-8CE7-4934-9D65-CBA1F781E959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="405" windowWidth="23835" windowHeight="14805" activeTab="2" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="3015" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="5" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="362">
   <si>
     <t>Name</t>
   </si>
@@ -1130,6 +1130,12 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Pershing Square</t>
+  </si>
+  <si>
+    <t>Bill Ackman</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1977,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B124)</f>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -3964,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2BFFAB-0B5A-48D6-B3B6-268A798BEB19}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4531,13 +4537,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF47A55-75CD-4F33-841F-B20598D340F5}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4913,111 +4919,122 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
+      <c r="B20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14000</v>
+      </c>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="E21" s="8" t="s">
+      <c r="F20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+      <c r="F22" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="D22">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F23" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>298</v>
       </c>
-      <c r="D23">
-        <f>D22+1</f>
+      <c r="E24">
+        <f>E23+1</f>
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>313</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D31" si="0">D23+1</f>
+      <c r="E25">
+        <f t="shared" ref="E25:E32" si="0">E24+1</f>
         <v>3</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>306</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D26">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D27">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D29">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D30">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D31">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F32" t="s">
         <v>300</v>
       </c>
     </row>
